--- a/Petrol_Pump_Rompicharla.xlsx
+++ b/Petrol_Pump_Rompicharla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rama\Google Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rama\Documents\GitHub\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,8 +420,8 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +979,7 @@
         <v>138020.23679999998</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M10:M15" si="9">N10</f>
+        <f t="shared" ref="M11:M15" si="9">N10</f>
         <v>89270.866400000028</v>
       </c>
       <c r="N11" s="5">

--- a/Petrol_Pump_Rompicharla.xlsx
+++ b/Petrol_Pump_Rompicharla.xlsx
@@ -419,9 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>62.84</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G15" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G20" si="0">E2*F2</f>
         <v>159431.364</v>
       </c>
       <c r="H2" s="5">
@@ -529,7 +529,7 @@
         <v>260714</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" ref="N2:N15" si="2">L2+M2</f>
+        <f t="shared" ref="N2:N31" si="2">L2+M2</f>
         <v>386090.01199999999</v>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>73.040000000000006</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D15" si="4">B9*C9</f>
+        <f t="shared" ref="D9:D20" si="4">B9*C9</f>
         <v>30238.560000000001</v>
       </c>
       <c r="E9" s="5">
@@ -920,7 +920,7 @@
         <v>150</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L15" si="7">(D10+G10+H10+I10)-J10</f>
+        <f t="shared" ref="L10:L20" si="7">(D10+G10+H10+I10)-J10</f>
         <v>28147.463999999978</v>
       </c>
       <c r="M10" s="5">
@@ -979,7 +979,7 @@
         <v>138020.23679999998</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M15" si="9">N10</f>
+        <f t="shared" ref="M11:M24" si="9">N10</f>
         <v>89270.866400000028</v>
       </c>
       <c r="N11" s="5">
@@ -1158,14 +1158,14 @@
         <v>52187.08</v>
       </c>
       <c r="E15" s="5">
-        <v>2976.3</v>
+        <v>2976.8</v>
       </c>
       <c r="F15" s="5">
         <v>62.84</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>187030.69200000001</v>
+        <v>187062.11200000002</v>
       </c>
       <c r="H15" s="5">
         <f>5403-1983</f>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="L15" s="5">
         <f t="shared" si="7"/>
-        <v>248786.772</v>
+        <v>248818.19200000004</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="9"/>
@@ -1191,98 +1191,264 @@
       </c>
       <c r="N15" s="5">
         <f t="shared" si="2"/>
-        <v>378515.66280000005</v>
+        <v>378547.08280000009</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>42901</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="B16" s="5">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="C16" s="5">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="4"/>
+        <v>43918.951999999997</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1356.07</v>
+      </c>
+      <c r="F16" s="5">
+        <v>62.84</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>85215.438800000004</v>
+      </c>
+      <c r="H16" s="5">
+        <f>4042-1846</f>
+        <v>2196</v>
+      </c>
+      <c r="I16" s="5">
+        <f>40000+3071+2750</f>
+        <v>45821</v>
+      </c>
+      <c r="J16" s="5">
+        <v>30956</v>
+      </c>
+      <c r="K16" s="5">
+        <f>680+6628+2000</f>
+        <v>9308</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="7"/>
+        <v>146195.39079999999</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="9"/>
+        <v>378547.08280000009</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="2"/>
+        <v>524742.47360000014</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>42902</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="B17" s="5">
+        <v>598.20000000000005</v>
+      </c>
+      <c r="C17" s="5">
+        <v>71.44</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="4"/>
+        <v>42735.408000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1355.26</v>
+      </c>
+      <c r="F17" s="5">
+        <v>61.19</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>82928.359400000001</v>
+      </c>
+      <c r="H17" s="5">
+        <f>3935-1351</f>
+        <v>2584</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>585800</v>
+      </c>
+      <c r="K17" s="5">
+        <f>628+1000+150</f>
+        <v>1778</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="7"/>
+        <v>-457552.23259999999</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="9"/>
+        <v>524742.47360000014</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="2"/>
+        <v>67190.241000000155</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>42903</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="B18" s="5">
+        <v>464.2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>71.180000000000007</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="4"/>
+        <v>33041.756000000001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2374.04</v>
+      </c>
+      <c r="F18" s="5">
+        <v>61.01</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>144840.18039999998</v>
+      </c>
+      <c r="H18" s="5">
+        <f>4909-2615</f>
+        <v>2294</v>
+      </c>
+      <c r="I18" s="5">
+        <f>7000+2000+14000+380</f>
+        <v>23380</v>
+      </c>
+      <c r="J18" s="5">
+        <v>129409</v>
+      </c>
+      <c r="K18" s="5">
+        <v>150</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="7"/>
+        <v>74146.936399999977</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="9"/>
+        <v>67190.241000000155</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="2"/>
+        <v>141337.17740000013</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>42904</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="B19" s="5">
+        <v>631</v>
+      </c>
+      <c r="C19" s="5">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="4"/>
+        <v>44706.35</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2669.43</v>
+      </c>
+      <c r="F19" s="5">
+        <v>60.82</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>162354.73259999999</v>
+      </c>
+      <c r="H19" s="5">
+        <f>8204-2983</f>
+        <v>5221</v>
+      </c>
+      <c r="I19" s="5">
+        <f>14000+2470+550</f>
+        <v>17020</v>
+      </c>
+      <c r="J19" s="5">
+        <v>65705</v>
+      </c>
+      <c r="K19" s="5">
+        <f>360+100</f>
+        <v>460</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="7"/>
+        <v>163597.08259999999</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="9"/>
+        <v>141337.17740000013</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="2"/>
+        <v>304934.26000000013</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>42905</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="5">
+        <v>811</v>
+      </c>
+      <c r="C20" s="5">
+        <v>70.58</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="4"/>
+        <v>57240.38</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3039.08</v>
+      </c>
+      <c r="F20" s="5">
+        <v>60.69</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>184441.76519999999</v>
+      </c>
+      <c r="H20" s="5">
+        <f>8993-2708</f>
+        <v>6285</v>
+      </c>
+      <c r="I20" s="5">
+        <f>10000+1300+3000+550</f>
+        <v>14850</v>
+      </c>
+      <c r="J20" s="5">
+        <f>466898+4120-2708</f>
+        <v>468310</v>
+      </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="L20" s="5">
+        <f t="shared" si="7"/>
+        <v>-205492.85479999997</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="9"/>
+        <v>304934.26000000013</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="2"/>
+        <v>99441.405200000154</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
@@ -1299,8 +1465,14 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="M21" s="5">
+        <f t="shared" si="9"/>
+        <v>99441.405200000154</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="2"/>
+        <v>99441.405200000154</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
@@ -1317,8 +1489,14 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="5">
+        <f t="shared" si="9"/>
+        <v>99441.405200000154</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="2"/>
+        <v>99441.405200000154</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
@@ -1335,8 +1513,14 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="M23" s="5">
+        <f t="shared" si="9"/>
+        <v>99441.405200000154</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="2"/>
+        <v>99441.405200000154</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -1353,8 +1537,14 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="M24" s="5">
+        <f t="shared" si="9"/>
+        <v>99441.405200000154</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="2"/>
+        <v>99441.405200000154</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -1372,7 +1562,10 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
@@ -1390,7 +1583,10 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
@@ -1408,7 +1604,10 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
@@ -1426,7 +1625,10 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
@@ -1444,7 +1646,10 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
@@ -1462,7 +1667,10 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
@@ -1480,7 +1688,10 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -1488,18 +1699,18 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>8428.9000000000015</v>
+        <v>11534.600000000002</v>
       </c>
       <c r="C32" s="5">
         <v>73.400000000000006</v>
       </c>
       <c r="D32" s="5">
         <f>(B32*C32)</f>
-        <v>618681.26000000013</v>
+        <v>846639.64000000025</v>
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>27117.699999999997</v>
+        <v>37912.079999999994</v>
       </c>
       <c r="F32" s="5">
         <f>F2</f>
@@ -1507,35 +1718,35 @@
       </c>
       <c r="G32" s="5">
         <f>E32*F32</f>
-        <v>1704076.2679999999</v>
+        <v>2382395.1072</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ref="H32:N32" si="10">SUM(H2:H31)</f>
-        <v>43733</v>
+        <v>62313</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="10"/>
-        <v>877985</v>
+        <v>979056</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="10"/>
-        <v>3123639.1100000003</v>
+        <v>4403819.1100000003</v>
       </c>
       <c r="K32" s="5">
         <f>SUM(K2:K31)</f>
-        <v>41044</v>
+        <v>52740</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="10"/>
-        <v>117802.01400000011</v>
+        <v>-161272.24359999981</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="10"/>
-        <v>3197769.142800001</v>
+        <v>5012285.9984000009</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="10"/>
-        <v>3315571.1568000005</v>
+        <v>4851013.7548000002</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -1566,31 +1777,31 @@
       </c>
       <c r="B34" s="5">
         <f>B32*B33</f>
-        <v>21915.140000000003</v>
+        <v>29989.960000000006</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <f>E32*E33</f>
-        <v>43388.32</v>
+        <v>60659.327999999994</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5">
         <f>H32</f>
-        <v>43733</v>
+        <v>62313</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5">
         <f>K32</f>
-        <v>41044</v>
+        <v>52740</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5">
         <f>(B34+E34+H34)-K34</f>
-        <v>67992.460000000006</v>
+        <v>100222.288</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -1616,7 +1827,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2700000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Petrol_Pump_Rompicharla.xlsx
+++ b/Petrol_Pump_Rompicharla.xlsx
@@ -419,9 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>62.84</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G20" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G27" si="0">E2*F2</f>
         <v>159431.364</v>
       </c>
       <c r="H2" s="5">
@@ -842,7 +842,7 @@
         <v>73.040000000000006</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D20" si="4">B9*C9</f>
+        <f t="shared" ref="D9:D27" si="4">B9*C9</f>
         <v>30238.560000000001</v>
       </c>
       <c r="E9" s="5">
@@ -920,7 +920,7 @@
         <v>150</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L20" si="7">(D10+G10+H10+I10)-J10</f>
+        <f t="shared" ref="L10:L27" si="7">(D10+G10+H10+I10)-J10</f>
         <v>28147.463999999978</v>
       </c>
       <c r="M10" s="5">
@@ -979,7 +979,7 @@
         <v>138020.23679999998</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M24" si="9">N10</f>
+        <f t="shared" ref="M11:M27" si="9">N10</f>
         <v>89270.866400000028</v>
       </c>
       <c r="N11" s="5">
@@ -1456,157 +1456,342 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="M21" s="5">
         <f t="shared" si="9"/>
         <v>99441.405200000154</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="2"/>
-        <v>99441.405200000154</v>
+        <f>272295.46</f>
+        <v>272295.46000000002</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>42907</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="B22" s="5">
+        <v>577.29999999999995</v>
+      </c>
+      <c r="C22" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="4"/>
+        <v>40688.103999999999</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2878.14</v>
+      </c>
+      <c r="F22" s="5">
+        <v>60.63</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>174501.62820000001</v>
+      </c>
+      <c r="H22" s="5">
+        <f>7611-3850</f>
+        <v>3761</v>
+      </c>
+      <c r="I22" s="5">
+        <f>550+30000+7611</f>
+        <v>38161</v>
+      </c>
+      <c r="J22" s="5">
+        <f>364664+3850</f>
+        <v>368514</v>
+      </c>
+      <c r="K22" s="5">
+        <v>380</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="7"/>
+        <v>-111402.2678</v>
+      </c>
       <c r="M22" s="5">
         <f t="shared" si="9"/>
-        <v>99441.405200000154</v>
+        <v>272295.46000000002</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="2"/>
-        <v>99441.405200000154</v>
+        <f>L22+M22</f>
+        <v>160893.19220000002</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>42908</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="B23" s="5">
+        <v>558.5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="4"/>
+        <v>39363.08</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3873.03</v>
+      </c>
+      <c r="F23" s="5">
+        <v>60.63</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>234821.80890000003</v>
+      </c>
+      <c r="H23" s="5">
+        <f>6554.34-1894</f>
+        <v>4660.34</v>
+      </c>
+      <c r="I23" s="5">
+        <f>260+550+10000+20000+7730+30000+7000</f>
+        <v>75540</v>
+      </c>
+      <c r="J23" s="5">
+        <f>81699-1894</f>
+        <v>79805</v>
+      </c>
+      <c r="K23" s="5">
+        <v>410</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="7"/>
+        <v>274580.22890000005</v>
+      </c>
       <c r="M23" s="5">
         <f t="shared" si="9"/>
-        <v>99441.405200000154</v>
+        <v>160893.19220000002</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="2"/>
-        <v>99441.405200000154</v>
+        <v>435473.42110000004</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>42909</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="B24" s="5">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="C24" s="5">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="4"/>
+        <v>39613.705000000009</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2107.11</v>
+      </c>
+      <c r="F24" s="5">
+        <v>60.54</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>127564.4394</v>
+      </c>
+      <c r="H24" s="5">
+        <f>5193.6-725</f>
+        <v>4468.6000000000004</v>
+      </c>
+      <c r="I24" s="5">
+        <f>190+550+6000+5000+4700+350000</f>
+        <v>366440</v>
+      </c>
+      <c r="J24" s="5">
+        <f>846729-725</f>
+        <v>846004</v>
+      </c>
+      <c r="K24" s="5">
+        <v>190</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="7"/>
+        <v>-307917.25560000003</v>
+      </c>
       <c r="M24" s="5">
         <f t="shared" si="9"/>
-        <v>99441.405200000154</v>
+        <v>435473.42110000004</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="2"/>
-        <v>99441.405200000154</v>
+        <v>127556.1655</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>42910</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="B25" s="5">
+        <v>519</v>
+      </c>
+      <c r="C25" s="5">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="4"/>
+        <v>36278.100000000006</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3681.48</v>
+      </c>
+      <c r="F25" s="5">
+        <v>60.42</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>222435.02160000001</v>
+      </c>
+      <c r="H25" s="5">
+        <f>5647.08-2618</f>
+        <v>3029.08</v>
+      </c>
+      <c r="I25" s="5">
+        <f>550+14000</f>
+        <v>14550</v>
+      </c>
+      <c r="J25" s="5">
+        <f>172366-2618+13990</f>
+        <v>183738</v>
+      </c>
+      <c r="K25" s="5">
+        <v>200</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="7"/>
+        <v>92554.201600000029</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="9"/>
+        <v>127556.1655</v>
+      </c>
       <c r="N25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>220110.36710000003</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>42911</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="B26" s="5">
+        <v>669</v>
+      </c>
+      <c r="C26" s="5">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="4"/>
+        <v>46562.399999999994</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1980.22</v>
+      </c>
+      <c r="F26" s="5">
+        <v>60.27</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>119347.8594</v>
+      </c>
+      <c r="H26" s="5">
+        <f>5078.77-1442</f>
+        <v>3636.7700000000004</v>
+      </c>
+      <c r="I26" s="5">
+        <f>550</f>
+        <v>550</v>
+      </c>
+      <c r="J26" s="5">
+        <f>25092-1442</f>
+        <v>23650</v>
+      </c>
+      <c r="K26" s="5">
+        <v>550</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="7"/>
+        <v>146447.02939999997</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="9"/>
+        <v>220110.36710000003</v>
+      </c>
       <c r="N26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>366557.39650000003</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>42912</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="B27" s="5">
+        <v>652.9</v>
+      </c>
+      <c r="C27" s="5">
+        <v>69.45</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="4"/>
+        <v>45343.904999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1976.84</v>
+      </c>
+      <c r="F27" s="5">
+        <v>60.18</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>118966.23119999999</v>
+      </c>
+      <c r="H27" s="5">
+        <f>3578.51-669</f>
+        <v>2909.51</v>
+      </c>
+      <c r="I27" s="5">
+        <f>550+2000+76665</f>
+        <v>79215</v>
+      </c>
+      <c r="J27" s="5">
+        <v>51131</v>
+      </c>
+      <c r="K27" s="5">
+        <v>210</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="7"/>
+        <v>195303.64620000002</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="9"/>
+        <v>366557.39650000003</v>
+      </c>
       <c r="N27" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>561861.04270000011</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -1699,18 +1884,18 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>11534.600000000002</v>
+        <v>15076.000000000002</v>
       </c>
       <c r="C32" s="5">
         <v>73.400000000000006</v>
       </c>
       <c r="D32" s="5">
         <f>(B32*C32)</f>
-        <v>846639.64000000025</v>
+        <v>1106578.4000000001</v>
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>37912.079999999994</v>
+        <v>54408.899999999994</v>
       </c>
       <c r="F32" s="5">
         <f>F2</f>
@@ -1718,35 +1903,35 @@
       </c>
       <c r="G32" s="5">
         <f>E32*F32</f>
-        <v>2382395.1072</v>
+        <v>3419055.2759999996</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ref="H32:N32" si="10">SUM(H2:H31)</f>
-        <v>62313</v>
+        <v>84778.3</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="10"/>
-        <v>979056</v>
+        <v>1553512</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="10"/>
-        <v>4403819.1100000003</v>
+        <v>5956661.1100000003</v>
       </c>
       <c r="K32" s="5">
         <f>SUM(K2:K31)</f>
-        <v>52740</v>
+        <v>54680</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="10"/>
-        <v>-161272.24359999981</v>
+        <v>128293.33910000019</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="10"/>
-        <v>5012285.9984000009</v>
+        <v>6296847.7852000017</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="10"/>
-        <v>4851013.7548000002</v>
+        <v>6597995.1791000012</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -1777,31 +1962,31 @@
       </c>
       <c r="B34" s="5">
         <f>B32*B33</f>
-        <v>29989.960000000006</v>
+        <v>39197.600000000006</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <f>E32*E33</f>
-        <v>60659.327999999994</v>
+        <v>87054.239999999991</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5">
         <f>H32</f>
-        <v>62313</v>
+        <v>84778.3</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5">
         <f>K32</f>
-        <v>52740</v>
+        <v>54680</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5">
         <f>(B34+E34+H34)-K34</f>
-        <v>100222.288</v>
+        <v>156350.14000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">

--- a/Petrol_Pump_Rompicharla.xlsx
+++ b/Petrol_Pump_Rompicharla.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>MS</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Month End</t>
+  </si>
+  <si>
+    <t>commision total</t>
   </si>
 </sst>
 </file>
@@ -420,8 +423,8 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +433,8 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -505,7 +509,7 @@
         <v>62.84</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G27" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G31" si="0">E2*F2</f>
         <v>159431.364</v>
       </c>
       <c r="H2" s="5">
@@ -842,7 +846,7 @@
         <v>73.040000000000006</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D27" si="4">B9*C9</f>
+        <f t="shared" ref="D9:D31" si="4">B9*C9</f>
         <v>30238.560000000001</v>
       </c>
       <c r="E9" s="5">
@@ -920,7 +924,7 @@
         <v>150</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L27" si="7">(D10+G10+H10+I10)-J10</f>
+        <f t="shared" ref="L10:L31" si="7">(D10+G10+H10+I10)-J10</f>
         <v>28147.463999999978</v>
       </c>
       <c r="M10" s="5">
@@ -979,7 +983,7 @@
         <v>138020.23679999998</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M27" si="9">N10</f>
+        <f t="shared" ref="M11:M31" si="9">N10</f>
         <v>89270.866400000028</v>
       </c>
       <c r="N11" s="5">
@@ -1454,25 +1458,43 @@
       <c r="A21" s="4">
         <v>42906</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="5">
+        <v>892.2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>70.48</v>
+      </c>
       <c r="D21" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+        <v>62882.256000000008</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3916.34</v>
+      </c>
+      <c r="F21" s="5">
+        <v>60.63</v>
+      </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+        <v>237447.69420000003</v>
+      </c>
+      <c r="H21" s="5">
+        <f>5448-1892</f>
+        <v>3556</v>
+      </c>
+      <c r="I21" s="5">
+        <f>60000+2500+5000+550+760+100000+80000</f>
+        <v>248810</v>
+      </c>
+      <c r="J21" s="5">
+        <v>381122</v>
+      </c>
+      <c r="K21" s="5">
+        <v>190</v>
+      </c>
       <c r="L21" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>171573.95020000008</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="9"/>
@@ -1798,84 +1820,203 @@
       <c r="A28" s="4">
         <v>42913</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="B28" s="5">
+        <v>610.4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>69.36</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="4"/>
+        <v>42337.343999999997</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2754.97</v>
+      </c>
+      <c r="F28" s="5">
+        <v>60.18</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>165794.09459999998</v>
+      </c>
+      <c r="H28" s="5">
+        <f>3870-877</f>
+        <v>2993</v>
+      </c>
+      <c r="I28" s="5">
+        <v>550</v>
+      </c>
+      <c r="J28" s="5">
+        <v>653494</v>
+      </c>
+      <c r="K28" s="5">
+        <v>140</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="7"/>
+        <v>-441819.56140000001</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="9"/>
+        <v>561861.04270000011</v>
+      </c>
       <c r="N28" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120041.4813000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>42914</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="B29" s="5">
+        <v>681</v>
+      </c>
+      <c r="C29" s="5">
+        <v>69.36</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="4"/>
+        <v>47234.159999999996</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2463.44</v>
+      </c>
+      <c r="F29" s="5">
+        <v>60.18</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>148249.8192</v>
+      </c>
+      <c r="H29" s="5">
+        <f>7232-2642</f>
+        <v>4590</v>
+      </c>
+      <c r="I29" s="5">
+        <f>25000+9000+205000</f>
+        <v>239000</v>
+      </c>
+      <c r="J29" s="5">
+        <v>407268</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1090</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="7"/>
+        <v>31805.979200000002</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="9"/>
+        <v>120041.4813000001</v>
+      </c>
       <c r="N29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151847.4605000001</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>42915</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="B30" s="5">
+        <v>861.9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>69.37</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="4"/>
+        <v>59790.003000000004</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4235</v>
+      </c>
+      <c r="F30" s="5">
+        <v>60.18</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>254862.3</v>
+      </c>
+      <c r="H30" s="5">
+        <f>7179-2518</f>
+        <v>4661</v>
+      </c>
+      <c r="I30" s="5">
+        <f>600+6000+1000+2725+1100</f>
+        <v>11425</v>
+      </c>
+      <c r="J30" s="5">
+        <v>259624</v>
+      </c>
+      <c r="K30" s="5">
+        <v>250</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="7"/>
+        <v>71114.303000000014</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="9"/>
+        <v>151847.4605000001</v>
+      </c>
       <c r="N30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>222961.76350000012</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>42916</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="B31" s="5">
+        <v>612.5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>69.209999999999994</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="4"/>
+        <v>42391.124999999993</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3456</v>
+      </c>
+      <c r="F31" s="5">
+        <v>60.11</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>207740.16</v>
+      </c>
+      <c r="H31" s="5">
+        <f>5029-1658</f>
+        <v>3371</v>
+      </c>
+      <c r="I31" s="5">
+        <f>550+570+6460+2000+10000</f>
+        <v>19580</v>
+      </c>
+      <c r="J31" s="5">
+        <v>332277</v>
+      </c>
+      <c r="K31" s="5">
+        <v>765</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="7"/>
+        <v>-59194.714999999967</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="9"/>
+        <v>222961.76350000012</v>
+      </c>
       <c r="N31" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>163767.04850000015</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -1884,18 +2025,18 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>15076.000000000002</v>
+        <v>18734.000000000004</v>
       </c>
       <c r="C32" s="5">
         <v>73.400000000000006</v>
       </c>
       <c r="D32" s="5">
         <f>(B32*C32)</f>
-        <v>1106578.4000000001</v>
+        <v>1375075.6000000003</v>
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>54408.899999999994</v>
+        <v>71234.649999999994</v>
       </c>
       <c r="F32" s="5">
         <f>F2</f>
@@ -1903,35 +2044,35 @@
       </c>
       <c r="G32" s="5">
         <f>E32*F32</f>
-        <v>3419055.2759999996</v>
+        <v>4476385.4059999995</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ref="H32:N32" si="10">SUM(H2:H31)</f>
-        <v>84778.3</v>
+        <v>103949.3</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="10"/>
-        <v>1553512</v>
+        <v>2072877</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="10"/>
-        <v>5956661.1100000003</v>
+        <v>7990446.1100000003</v>
       </c>
       <c r="K32" s="5">
         <f>SUM(K2:K31)</f>
-        <v>54680</v>
+        <v>57115</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="10"/>
-        <v>128293.33910000019</v>
+        <v>-98226.704899999662</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="10"/>
-        <v>6296847.7852000017</v>
+        <v>7353559.5332000023</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="10"/>
-        <v>6597995.1791000012</v>
+        <v>7256612.9329000022</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -1949,7 +2090,10 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5">
+        <f>50000+20000</f>
+        <v>70000</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
@@ -1962,36 +2106,47 @@
       </c>
       <c r="B34" s="5">
         <f>B32*B33</f>
-        <v>39197.600000000006</v>
+        <v>48708.400000000009</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <f>E32*E33</f>
-        <v>87054.239999999991</v>
+        <v>113975.44</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5">
         <f>H32</f>
-        <v>84778.3</v>
+        <v>103949.3</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5">
-        <f>K32</f>
-        <v>54680</v>
+        <f>K32+K33</f>
+        <v>127115</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5">
         <f>(B34+E34+H34)-K34</f>
-        <v>156350.14000000001</v>
+        <v>139518.14000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42917</v>
+      </c>
+      <c r="B35">
+        <f>(18734+71234)/100*2*60</f>
+        <v>107961.59999999999</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <f>E34+B34</f>
+        <v>162683.84000000003</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">

--- a/Petrol_Pump_Rompicharla.xlsx
+++ b/Petrol_Pump_Rompicharla.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rama\Documents\GitHub\Business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Rompicharla" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
   <si>
     <t>MS</t>
-  </si>
-  <si>
-    <t>HSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date </t>
   </si>
   <si>
     <t>Rate</t>
@@ -42,16 +29,22 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>HSD</t>
+  </si>
+  <si>
     <t>NBK(JAMA)</t>
+  </si>
+  <si>
+    <t>Debit</t>
   </si>
   <si>
     <t>Credit</t>
   </si>
   <si>
-    <t>Balance</t>
+    <t>Expenses</t>
   </si>
   <si>
-    <t>Debit</t>
+    <t>Balance</t>
   </si>
   <si>
     <t>BF</t>
@@ -63,13 +56,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Expenses</t>
+    <t>Month End</t>
   </si>
   <si>
     <t>profit/loss</t>
-  </si>
-  <si>
-    <t>Month End</t>
   </si>
   <si>
     <t>commision total</t>
@@ -78,16 +68,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,7 +89,7 @@
       <sz val="14"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,11 +97,162 @@
       <sz val="16"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,12 +261,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,31 +460,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -200,7 +812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,86 +1021,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="14.7142857142857" customWidth="1"/>
+    <col min="10" max="11" width="15.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="16.4285714285714" customWidth="1"/>
+    <col min="13" max="14" width="15.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.75" spans="1:14">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="21" spans="1:14">
       <c r="A2" s="4">
         <v>42887</v>
       </c>
@@ -496,11 +1103,11 @@
         <v>680.2</v>
       </c>
       <c r="C2" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D2" s="5">
         <f>B2*C2</f>
-        <v>49681.808000000005</v>
+        <v>49681.808</v>
       </c>
       <c r="E2" s="5">
         <v>2537.1</v>
@@ -509,7 +1116,7 @@
         <v>62.84</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G31" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G32" si="0">E2*F2</f>
         <v>159431.364</v>
       </c>
       <c r="H2" s="5">
@@ -527,17 +1134,17 @@
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L9" si="1">(D2+G2+H2+I2)-J2</f>
-        <v>125376.01200000002</v>
+        <v>125376.012</v>
       </c>
       <c r="M2" s="5">
         <v>260714</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ref="N2:N31" si="2">L2+M2</f>
-        <v>386090.01199999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>386090.012</v>
+      </c>
+    </row>
+    <row r="3" ht="21" spans="1:14">
       <c r="A3" s="4">
         <v>42888</v>
       </c>
@@ -545,11 +1152,11 @@
         <v>620.6</v>
       </c>
       <c r="C3" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D4" si="3">B3*C3</f>
-        <v>45328.624000000003</v>
+        <f t="shared" ref="D3:D8" si="3">B3*C3</f>
+        <v>45328.624</v>
       </c>
       <c r="E3" s="5">
         <v>1436.5</v>
@@ -576,17 +1183,17 @@
       </c>
       <c r="L3" s="5">
         <f t="shared" si="1"/>
-        <v>110709.28400000001</v>
+        <v>110709.284</v>
       </c>
       <c r="M3" s="5">
         <v>386090</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="2"/>
-        <v>496799.28399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>496799.284</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:14">
       <c r="A4" s="4">
         <v>42889</v>
       </c>
@@ -594,21 +1201,21 @@
         <v>652.4</v>
       </c>
       <c r="C4" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="3"/>
-        <v>47651.296000000002</v>
+        <v>47651.296</v>
       </c>
       <c r="E4" s="5">
-        <v>1284.1300000000001</v>
+        <v>1284.13</v>
       </c>
       <c r="F4" s="5">
         <v>62.84</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>80694.729200000016</v>
+        <v>80694.7292</v>
       </c>
       <c r="H4" s="5">
         <f>4270-1486</f>
@@ -625,18 +1232,18 @@
       </c>
       <c r="L4" s="5">
         <f t="shared" si="1"/>
-        <v>-373709.97479999997</v>
+        <v>-373709.9748</v>
       </c>
       <c r="M4" s="5">
-        <f>N3</f>
-        <v>496799.28399999999</v>
+        <f t="shared" ref="M4:M10" si="4">N3</f>
+        <v>496799.284</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" si="2"/>
-        <v>123089.30920000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>123089.3092</v>
+      </c>
+    </row>
+    <row r="5" ht="21" spans="1:14">
       <c r="A5" s="4">
         <v>42890</v>
       </c>
@@ -644,11 +1251,11 @@
         <v>856.8</v>
       </c>
       <c r="C5" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D5" s="5">
-        <f>B5*C5</f>
-        <v>62580.671999999999</v>
+        <f t="shared" si="3"/>
+        <v>62580.672</v>
       </c>
       <c r="E5" s="5">
         <v>2055</v>
@@ -658,7 +1265,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>129136.20000000001</v>
+        <v>129136.2</v>
       </c>
       <c r="H5" s="5">
         <v>3370</v>
@@ -684,7 +1291,7 @@
         <v>257575.842</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" ht="21" spans="1:14">
       <c r="A6" s="4">
         <v>42891</v>
       </c>
@@ -692,11 +1299,11 @@
         <v>611.1</v>
       </c>
       <c r="C6" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D6" s="5">
-        <f>B6*C6</f>
-        <v>44634.744000000006</v>
+        <f t="shared" si="3"/>
+        <v>44634.744</v>
       </c>
       <c r="E6" s="5">
         <v>944.58</v>
@@ -706,7 +1313,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>59357.407200000009</v>
+        <v>59357.4072</v>
       </c>
       <c r="H6" s="5">
         <v>1955</v>
@@ -722,18 +1329,18 @@
       </c>
       <c r="L6" s="5">
         <f t="shared" si="1"/>
-        <v>63926.151200000022</v>
+        <v>63926.1512</v>
       </c>
       <c r="M6" s="5">
-        <f>N5</f>
+        <f t="shared" si="4"/>
         <v>257575.842</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="2"/>
-        <v>321501.99320000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>321501.9932</v>
+      </c>
+    </row>
+    <row r="7" ht="21" spans="1:14">
       <c r="A7" s="4">
         <v>42892</v>
       </c>
@@ -741,11 +1348,11 @@
         <v>509.1</v>
       </c>
       <c r="C7" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D7" s="5">
-        <f>B7*C7</f>
-        <v>37184.664000000004</v>
+        <f t="shared" si="3"/>
+        <v>37184.664</v>
       </c>
       <c r="E7" s="5">
         <v>1600.5</v>
@@ -772,18 +1379,18 @@
       </c>
       <c r="L7" s="5">
         <f t="shared" si="1"/>
-        <v>-192503.86600000001</v>
+        <v>-192503.866</v>
       </c>
       <c r="M7" s="5">
-        <f>N6</f>
-        <v>321501.99320000003</v>
+        <f t="shared" si="4"/>
+        <v>321501.9932</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="2"/>
-        <v>128998.12720000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>128998.1272</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:14">
       <c r="A8" s="4">
         <v>42893</v>
       </c>
@@ -791,11 +1398,11 @@
         <v>677.1</v>
       </c>
       <c r="C8" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D8" s="5">
-        <f>B8*C8</f>
-        <v>49455.384000000005</v>
+        <f t="shared" si="3"/>
+        <v>49455.384</v>
       </c>
       <c r="E8" s="5">
         <v>1713.34</v>
@@ -824,18 +1431,18 @@
       </c>
       <c r="L8" s="5">
         <f t="shared" si="1"/>
-        <v>68771.669600000023</v>
+        <v>68771.6696</v>
       </c>
       <c r="M8" s="5">
-        <f>N7</f>
-        <v>128998.12720000002</v>
+        <f t="shared" si="4"/>
+        <v>128998.1272</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="2"/>
-        <v>197769.79680000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>197769.7968</v>
+      </c>
+    </row>
+    <row r="9" ht="21" spans="1:14">
       <c r="A9" s="4">
         <v>42894</v>
       </c>
@@ -843,11 +1450,11 @@
         <v>414</v>
       </c>
       <c r="C9" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D31" si="4">B9*C9</f>
-        <v>30238.560000000001</v>
+        <f t="shared" ref="D9:D31" si="5">B9*C9</f>
+        <v>30238.56</v>
       </c>
       <c r="E9" s="5">
         <v>902.34</v>
@@ -857,7 +1464,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>56703.045600000005</v>
+        <v>56703.0456</v>
       </c>
       <c r="H9" s="5">
         <f>2716-469</f>
@@ -874,18 +1481,18 @@
       </c>
       <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>-136646.39439999999</v>
+        <v>-136646.3944</v>
       </c>
       <c r="M9" s="5">
-        <f>N8</f>
-        <v>197769.79680000004</v>
+        <f t="shared" si="4"/>
+        <v>197769.7968</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="2"/>
-        <v>61123.40240000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>61123.4024</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:15">
       <c r="A10" s="4">
         <v>42895</v>
       </c>
@@ -893,11 +1500,11 @@
         <v>28.8</v>
       </c>
       <c r="C10" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ref="D10" si="5">B10*C10</f>
-        <v>2103.5520000000001</v>
+        <f t="shared" ref="D10" si="6">B10*C10</f>
+        <v>2103.552</v>
       </c>
       <c r="E10" s="5">
         <v>1746.8</v>
@@ -906,7 +1513,7 @@
         <v>62.84</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10" si="6">E10*F10</f>
+        <f t="shared" ref="G10" si="7">E10*F10</f>
         <v>109768.912</v>
       </c>
       <c r="H10" s="5">
@@ -924,22 +1531,22 @@
         <v>150</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L31" si="7">(D10+G10+H10+I10)-J10</f>
-        <v>28147.463999999978</v>
+        <f t="shared" ref="L10:L31" si="8">(D10+G10+H10+I10)-J10</f>
+        <v>28147.464</v>
       </c>
       <c r="M10" s="5">
-        <f>N9</f>
-        <v>61123.40240000005</v>
+        <f t="shared" si="4"/>
+        <v>61123.4024</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" ref="N10" si="8">L10+M10</f>
-        <v>89270.866400000028</v>
+        <f t="shared" ref="N10" si="9">L10+M10</f>
+        <v>89270.8664</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" ht="21" spans="1:14">
       <c r="A11" s="4">
         <v>42896</v>
       </c>
@@ -947,21 +1554,21 @@
         <v>486.8</v>
       </c>
       <c r="C11" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="4"/>
-        <v>35555.872000000003</v>
+        <f t="shared" si="5"/>
+        <v>35555.872</v>
       </c>
       <c r="E11" s="5">
-        <v>2368.7199999999998</v>
+        <v>2368.72</v>
       </c>
       <c r="F11" s="5">
         <v>62.84</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>148850.36479999998</v>
+        <v>148850.3648</v>
       </c>
       <c r="H11" s="5">
         <f>4765-1326</f>
@@ -979,19 +1586,19 @@
         <v>145</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="7"/>
-        <v>138020.23679999998</v>
+        <f t="shared" si="8"/>
+        <v>138020.2368</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M31" si="9">N10</f>
-        <v>89270.866400000028</v>
+        <f t="shared" ref="M11:M31" si="10">N10</f>
+        <v>89270.8664</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="2"/>
-        <v>227291.10320000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>227291.1032</v>
+      </c>
+    </row>
+    <row r="12" ht="21" spans="1:14">
       <c r="A12" s="4">
         <v>42897</v>
       </c>
@@ -999,14 +1606,14 @@
         <v>663.3</v>
       </c>
       <c r="C12" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="4"/>
-        <v>48447.432000000001</v>
+        <f t="shared" si="5"/>
+        <v>48447.432</v>
       </c>
       <c r="E12" s="5">
-        <v>2075.7199999999998</v>
+        <v>2075.72</v>
       </c>
       <c r="F12" s="5">
         <v>62.84</v>
@@ -1030,19 +1637,19 @@
         <v>290</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="7"/>
-        <v>157137.67680000002</v>
+        <f t="shared" si="8"/>
+        <v>157137.6768</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="9"/>
-        <v>227291.10320000001</v>
+        <f t="shared" si="10"/>
+        <v>227291.1032</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="2"/>
         <v>384428.78</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" ht="21" spans="1:14">
       <c r="A13" s="4">
         <v>42898</v>
       </c>
@@ -1050,11 +1657,11 @@
         <v>883.2</v>
       </c>
       <c r="C13" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="4"/>
-        <v>64508.928000000007</v>
+        <f t="shared" si="5"/>
+        <v>64508.928</v>
       </c>
       <c r="E13" s="5">
         <v>3834.57</v>
@@ -1064,7 +1671,7 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>240964.37880000003</v>
+        <v>240964.3788</v>
       </c>
       <c r="H13" s="5">
         <f>6739-1624</f>
@@ -1082,19 +1689,19 @@
         <v>1380</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="7"/>
-        <v>-251040.69319999998</v>
+        <f t="shared" si="8"/>
+        <v>-251040.6932</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>384428.78</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="2"/>
-        <v>133388.08680000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>133388.0868</v>
+      </c>
+    </row>
+    <row r="14" ht="21" spans="1:14">
       <c r="A14" s="4">
         <v>42899</v>
       </c>
@@ -1102,11 +1709,11 @@
         <v>631</v>
       </c>
       <c r="C14" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="4"/>
-        <v>46088.240000000005</v>
+        <f t="shared" si="5"/>
+        <v>46088.24</v>
       </c>
       <c r="E14" s="5">
         <v>1642.1</v>
@@ -1135,19 +1742,19 @@
         <v>550</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="7"/>
-        <v>-3659.1959999999963</v>
+        <f t="shared" si="8"/>
+        <v>-3659.196</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="9"/>
-        <v>133388.08680000005</v>
+        <f t="shared" si="10"/>
+        <v>133388.0868</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="2"/>
-        <v>129728.89080000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>129728.8908</v>
+      </c>
+    </row>
+    <row r="15" ht="21" spans="1:14">
       <c r="A15" s="4">
         <v>42900</v>
       </c>
@@ -1155,10 +1762,10 @@
         <v>714.5</v>
       </c>
       <c r="C15" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52187.08</v>
       </c>
       <c r="E15" s="5">
@@ -1169,7 +1776,7 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>187062.11200000002</v>
+        <v>187062.112</v>
       </c>
       <c r="H15" s="5">
         <f>5403-1983</f>
@@ -1186,31 +1793,31 @@
         <v>140</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="7"/>
-        <v>248818.19200000004</v>
+        <f t="shared" si="8"/>
+        <v>248818.192</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="9"/>
-        <v>129728.89080000005</v>
+        <f t="shared" si="10"/>
+        <v>129728.8908</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="2"/>
-        <v>378547.08280000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>378547.0828</v>
+      </c>
+    </row>
+    <row r="16" ht="21" spans="1:14">
       <c r="A16" s="4">
         <v>42901</v>
       </c>
       <c r="B16" s="5">
-        <v>601.29999999999995</v>
+        <v>601.3</v>
       </c>
       <c r="C16" s="5">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="4"/>
-        <v>43918.951999999997</v>
+        <f t="shared" si="5"/>
+        <v>43918.952</v>
       </c>
       <c r="E16" s="5">
         <v>1356.07</v>
@@ -1220,7 +1827,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>85215.438800000004</v>
+        <v>85215.4388</v>
       </c>
       <c r="H16" s="5">
         <f>4042-1846</f>
@@ -1238,31 +1845,31 @@
         <v>9308</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="7"/>
-        <v>146195.39079999999</v>
+        <f t="shared" si="8"/>
+        <v>146195.3908</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="9"/>
-        <v>378547.08280000009</v>
+        <f t="shared" si="10"/>
+        <v>378547.0828</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="2"/>
-        <v>524742.47360000014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>524742.4736</v>
+      </c>
+    </row>
+    <row r="17" ht="21" spans="1:14">
       <c r="A17" s="4">
         <v>42902</v>
       </c>
       <c r="B17" s="5">
-        <v>598.20000000000005</v>
+        <v>598.2</v>
       </c>
       <c r="C17" s="5">
         <v>71.44</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="4"/>
-        <v>42735.408000000003</v>
+        <f t="shared" si="5"/>
+        <v>42735.408</v>
       </c>
       <c r="E17" s="5">
         <v>1355.26</v>
@@ -1272,7 +1879,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>82928.359400000001</v>
+        <v>82928.3594</v>
       </c>
       <c r="H17" s="5">
         <f>3935-1351</f>
@@ -1289,19 +1896,19 @@
         <v>1778</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="7"/>
-        <v>-457552.23259999999</v>
+        <f t="shared" si="8"/>
+        <v>-457552.2326</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="9"/>
-        <v>524742.47360000014</v>
+        <f t="shared" si="10"/>
+        <v>524742.4736</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="2"/>
-        <v>67190.241000000155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>67190.2410000002</v>
+      </c>
+    </row>
+    <row r="18" ht="21" spans="1:14">
       <c r="A18" s="4">
         <v>42903</v>
       </c>
@@ -1309,11 +1916,11 @@
         <v>464.2</v>
       </c>
       <c r="C18" s="5">
-        <v>71.180000000000007</v>
+        <v>71.18</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="4"/>
-        <v>33041.756000000001</v>
+        <f t="shared" si="5"/>
+        <v>33041.756</v>
       </c>
       <c r="E18" s="5">
         <v>2374.04</v>
@@ -1323,7 +1930,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>144840.18039999998</v>
+        <v>144840.1804</v>
       </c>
       <c r="H18" s="5">
         <f>4909-2615</f>
@@ -1340,19 +1947,19 @@
         <v>150</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="7"/>
-        <v>74146.936399999977</v>
+        <f t="shared" si="8"/>
+        <v>74146.9364</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="9"/>
-        <v>67190.241000000155</v>
+        <f t="shared" si="10"/>
+        <v>67190.2410000002</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="2"/>
-        <v>141337.17740000013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>141337.1774</v>
+      </c>
+    </row>
+    <row r="19" ht="21" spans="1:14">
       <c r="A19" s="4">
         <v>42904</v>
       </c>
@@ -1360,10 +1967,10 @@
         <v>631</v>
       </c>
       <c r="C19" s="5">
-        <v>70.849999999999994</v>
+        <v>70.85</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44706.35</v>
       </c>
       <c r="E19" s="5">
@@ -1374,7 +1981,7 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>162354.73259999999</v>
+        <v>162354.7326</v>
       </c>
       <c r="H19" s="5">
         <f>8204-2983</f>
@@ -1392,19 +1999,19 @@
         <v>460</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="7"/>
-        <v>163597.08259999999</v>
+        <f t="shared" si="8"/>
+        <v>163597.0826</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="9"/>
-        <v>141337.17740000013</v>
+        <f t="shared" si="10"/>
+        <v>141337.1774</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="2"/>
-        <v>304934.26000000013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>304934.26</v>
+      </c>
+    </row>
+    <row r="20" ht="21" spans="1:14">
       <c r="A20" s="4">
         <v>42905</v>
       </c>
@@ -1415,7 +2022,7 @@
         <v>70.58</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57240.38</v>
       </c>
       <c r="E20" s="5">
@@ -1426,7 +2033,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>184441.76519999999</v>
+        <v>184441.7652</v>
       </c>
       <c r="H20" s="5">
         <f>8993-2708</f>
@@ -1442,19 +2049,19 @@
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5">
-        <f t="shared" si="7"/>
-        <v>-205492.85479999997</v>
+        <f t="shared" si="8"/>
+        <v>-205492.8548</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="9"/>
-        <v>304934.26000000013</v>
+        <f t="shared" si="10"/>
+        <v>304934.26</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="2"/>
-        <v>99441.405200000154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>99441.4052000002</v>
+      </c>
+    </row>
+    <row r="21" ht="21" spans="1:14">
       <c r="A21" s="4">
         <v>42906</v>
       </c>
@@ -1465,8 +2072,8 @@
         <v>70.48</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="4"/>
-        <v>62882.256000000008</v>
+        <f t="shared" si="5"/>
+        <v>62882.256</v>
       </c>
       <c r="E21" s="5">
         <v>3916.34</v>
@@ -1476,7 +2083,7 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>237447.69420000003</v>
+        <v>237447.6942</v>
       </c>
       <c r="H21" s="5">
         <f>5448-1892</f>
@@ -1493,31 +2100,31 @@
         <v>190</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="7"/>
-        <v>171573.95020000008</v>
+        <f t="shared" si="8"/>
+        <v>171573.9502</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="9"/>
-        <v>99441.405200000154</v>
+        <f t="shared" si="10"/>
+        <v>99441.4052000002</v>
       </c>
       <c r="N21" s="5">
         <f>272295.46</f>
-        <v>272295.46000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>272295.46</v>
+      </c>
+    </row>
+    <row r="22" ht="21" spans="1:14">
       <c r="A22" s="4">
         <v>42907</v>
       </c>
       <c r="B22" s="5">
-        <v>577.29999999999995</v>
+        <v>577.3</v>
       </c>
       <c r="C22" s="5">
         <v>70.48</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="4"/>
-        <v>40688.103999999999</v>
+        <f t="shared" si="5"/>
+        <v>40688.104</v>
       </c>
       <c r="E22" s="5">
         <v>2878.14</v>
@@ -1527,7 +2134,7 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>174501.62820000001</v>
+        <v>174501.6282</v>
       </c>
       <c r="H22" s="5">
         <f>7611-3850</f>
@@ -1545,19 +2152,19 @@
         <v>380</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-111402.2678</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="9"/>
-        <v>272295.46000000002</v>
+        <f t="shared" si="10"/>
+        <v>272295.46</v>
       </c>
       <c r="N22" s="5">
         <f>L22+M22</f>
-        <v>160893.19220000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>160893.1922</v>
+      </c>
+    </row>
+    <row r="23" ht="21" spans="1:14">
       <c r="A23" s="4">
         <v>42908</v>
       </c>
@@ -1568,7 +2175,7 @@
         <v>70.48</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39363.08</v>
       </c>
       <c r="E23" s="5">
@@ -1579,7 +2186,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>234821.80890000003</v>
+        <v>234821.8089</v>
       </c>
       <c r="H23" s="5">
         <f>6554.34-1894</f>
@@ -1597,31 +2204,31 @@
         <v>410</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="7"/>
-        <v>274580.22890000005</v>
+        <f t="shared" si="8"/>
+        <v>274580.2289</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="9"/>
-        <v>160893.19220000002</v>
+        <f t="shared" si="10"/>
+        <v>160893.1922</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="2"/>
-        <v>435473.42110000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>435473.4211</v>
+      </c>
+    </row>
+    <row r="24" ht="21" spans="1:14">
       <c r="A24" s="4">
         <v>42909</v>
       </c>
       <c r="B24" s="5">
-        <v>564.70000000000005</v>
+        <v>564.7</v>
       </c>
       <c r="C24" s="5">
-        <v>70.150000000000006</v>
+        <v>70.15</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="4"/>
-        <v>39613.705000000009</v>
+        <f t="shared" si="5"/>
+        <v>39613.705</v>
       </c>
       <c r="E24" s="5">
         <v>2107.11</v>
@@ -1635,7 +2242,7 @@
       </c>
       <c r="H24" s="5">
         <f>5193.6-725</f>
-        <v>4468.6000000000004</v>
+        <v>4468.6</v>
       </c>
       <c r="I24" s="5">
         <f>190+550+6000+5000+4700+350000</f>
@@ -1649,19 +2256,19 @@
         <v>190</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="7"/>
-        <v>-307917.25560000003</v>
+        <f t="shared" si="8"/>
+        <v>-307917.2556</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="9"/>
-        <v>435473.42110000004</v>
+        <f t="shared" si="10"/>
+        <v>435473.4211</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="2"/>
         <v>127556.1655</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" ht="21" spans="1:14">
       <c r="A25" s="4">
         <v>42910</v>
       </c>
@@ -1669,11 +2276,11 @@
         <v>519</v>
       </c>
       <c r="C25" s="5">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="4"/>
-        <v>36278.100000000006</v>
+        <f t="shared" si="5"/>
+        <v>36278.1</v>
       </c>
       <c r="E25" s="5">
         <v>3681.48</v>
@@ -1683,7 +2290,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>222435.02160000001</v>
+        <v>222435.0216</v>
       </c>
       <c r="H25" s="5">
         <f>5647.08-2618</f>
@@ -1701,19 +2308,19 @@
         <v>200</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="7"/>
-        <v>92554.201600000029</v>
+        <f t="shared" si="8"/>
+        <v>92554.2016</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>127556.1655</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="2"/>
-        <v>220110.36710000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>220110.3671</v>
+      </c>
+    </row>
+    <row r="26" ht="21" spans="1:14">
       <c r="A26" s="4">
         <v>42911</v>
       </c>
@@ -1721,11 +2328,11 @@
         <v>669</v>
       </c>
       <c r="C26" s="5">
-        <v>69.599999999999994</v>
+        <v>69.6</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="4"/>
-        <v>46562.399999999994</v>
+        <f t="shared" si="5"/>
+        <v>46562.4</v>
       </c>
       <c r="E26" s="5">
         <v>1980.22</v>
@@ -1739,7 +2346,7 @@
       </c>
       <c r="H26" s="5">
         <f>5078.77-1442</f>
-        <v>3636.7700000000004</v>
+        <v>3636.77</v>
       </c>
       <c r="I26" s="5">
         <f>550</f>
@@ -1753,19 +2360,19 @@
         <v>550</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="7"/>
-        <v>146447.02939999997</v>
+        <f t="shared" si="8"/>
+        <v>146447.0294</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="9"/>
-        <v>220110.36710000003</v>
+        <f t="shared" si="10"/>
+        <v>220110.3671</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="2"/>
-        <v>366557.39650000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>366557.3965</v>
+      </c>
+    </row>
+    <row r="27" ht="21" spans="1:14">
       <c r="A27" s="4">
         <v>42912</v>
       </c>
@@ -1776,8 +2383,8 @@
         <v>69.45</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="4"/>
-        <v>45343.904999999999</v>
+        <f t="shared" si="5"/>
+        <v>45343.905</v>
       </c>
       <c r="E27" s="5">
         <v>1976.84</v>
@@ -1787,7 +2394,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>118966.23119999999</v>
+        <v>118966.2312</v>
       </c>
       <c r="H27" s="5">
         <f>3578.51-669</f>
@@ -1804,19 +2411,19 @@
         <v>210</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="7"/>
-        <v>195303.64620000002</v>
+        <f t="shared" si="8"/>
+        <v>195303.6462</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="9"/>
-        <v>366557.39650000003</v>
+        <f t="shared" si="10"/>
+        <v>366557.3965</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="2"/>
-        <v>561861.04270000011</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>561861.0427</v>
+      </c>
+    </row>
+    <row r="28" ht="21" spans="1:14">
       <c r="A28" s="4">
         <v>42913</v>
       </c>
@@ -1827,8 +2434,8 @@
         <v>69.36</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="4"/>
-        <v>42337.343999999997</v>
+        <f t="shared" si="5"/>
+        <v>42337.344</v>
       </c>
       <c r="E28" s="5">
         <v>2754.97</v>
@@ -1838,7 +2445,7 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>165794.09459999998</v>
+        <v>165794.0946</v>
       </c>
       <c r="H28" s="5">
         <f>3870-877</f>
@@ -1854,19 +2461,19 @@
         <v>140</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="7"/>
-        <v>-441819.56140000001</v>
+        <f t="shared" si="8"/>
+        <v>-441819.5614</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="9"/>
-        <v>561861.04270000011</v>
+        <f t="shared" si="10"/>
+        <v>561861.0427</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="2"/>
-        <v>120041.4813000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>120041.4813</v>
+      </c>
+    </row>
+    <row r="29" ht="21" spans="1:14">
       <c r="A29" s="4">
         <v>42914</v>
       </c>
@@ -1877,8 +2484,8 @@
         <v>69.36</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="4"/>
-        <v>47234.159999999996</v>
+        <f t="shared" si="5"/>
+        <v>47234.16</v>
       </c>
       <c r="E29" s="5">
         <v>2463.44</v>
@@ -1905,19 +2512,19 @@
         <v>1090</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="7"/>
-        <v>31805.979200000002</v>
+        <f t="shared" si="8"/>
+        <v>31805.9792</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="9"/>
-        <v>120041.4813000001</v>
+        <f t="shared" si="10"/>
+        <v>120041.4813</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="2"/>
-        <v>151847.4605000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>151847.4605</v>
+      </c>
+    </row>
+    <row r="30" ht="21" spans="1:14">
       <c r="A30" s="4">
         <v>42915</v>
       </c>
@@ -1928,8 +2535,8 @@
         <v>69.37</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="4"/>
-        <v>59790.003000000004</v>
+        <f t="shared" si="5"/>
+        <v>59790.003</v>
       </c>
       <c r="E30" s="5">
         <v>4235</v>
@@ -1956,19 +2563,19 @@
         <v>250</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="7"/>
-        <v>71114.303000000014</v>
+        <f t="shared" si="8"/>
+        <v>71114.303</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="9"/>
-        <v>151847.4605000001</v>
+        <f t="shared" si="10"/>
+        <v>151847.4605</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="2"/>
-        <v>222961.76350000012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>222961.7635</v>
+      </c>
+    </row>
+    <row r="31" ht="21" spans="1:14">
       <c r="A31" s="4">
         <v>42916</v>
       </c>
@@ -1976,11 +2583,11 @@
         <v>612.5</v>
       </c>
       <c r="C31" s="5">
-        <v>69.209999999999994</v>
+        <v>69.21</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="4"/>
-        <v>42391.124999999993</v>
+        <f t="shared" si="5"/>
+        <v>42391.125</v>
       </c>
       <c r="E31" s="5">
         <v>3456</v>
@@ -2007,75 +2614,75 @@
         <v>765</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="7"/>
-        <v>-59194.714999999967</v>
+        <f t="shared" si="8"/>
+        <v>-59194.715</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="9"/>
-        <v>222961.76350000012</v>
+        <f t="shared" si="10"/>
+        <v>222961.7635</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="2"/>
-        <v>163767.04850000015</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <v>163767.0485</v>
+      </c>
+    </row>
+    <row r="32" ht="21" spans="1:14">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>18734.000000000004</v>
+        <v>18734</v>
       </c>
       <c r="C32" s="5">
-        <v>73.400000000000006</v>
+        <v>73.4</v>
       </c>
       <c r="D32" s="5">
         <f>(B32*C32)</f>
-        <v>1375075.6000000003</v>
+        <v>1375075.6</v>
       </c>
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>71234.649999999994</v>
+        <v>71234.65</v>
       </c>
       <c r="F32" s="5">
         <f>F2</f>
         <v>62.84</v>
       </c>
       <c r="G32" s="5">
-        <f>E32*F32</f>
-        <v>4476385.4059999995</v>
+        <f t="shared" si="0"/>
+        <v>4476385.406</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ref="H32:N32" si="10">SUM(H2:H31)</f>
+        <f t="shared" ref="H32:N32" si="11">SUM(H2:H31)</f>
         <v>103949.3</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2072877</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="10"/>
-        <v>7990446.1100000003</v>
+        <f t="shared" si="11"/>
+        <v>7990446.11</v>
       </c>
       <c r="K32" s="5">
-        <f>SUM(K2:K31)</f>
+        <f t="shared" si="11"/>
         <v>57115</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="10"/>
-        <v>-98226.704899999662</v>
+        <f t="shared" si="11"/>
+        <v>-98226.7048999997</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="10"/>
-        <v>7353559.5332000023</v>
+        <f t="shared" si="11"/>
+        <v>7353559.5332</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="10"/>
-        <v>7256612.9329000022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>7256612.9329</v>
+      </c>
+    </row>
+    <row r="33" ht="21" spans="1:14">
       <c r="A33" s="4"/>
       <c r="B33" s="5">
         <v>2.6</v>
@@ -2097,16 +2704,16 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="21" spans="1:14">
+      <c r="A34" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B34" s="5">
         <f>B32*B33</f>
-        <v>48708.400000000009</v>
+        <v>48708.4</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2130,50 +2737,55 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5">
         <f>(B34+E34+H34)-K34</f>
-        <v>139518.14000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>139518.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>42917</v>
       </c>
       <c r="B35">
         <f>(18734+71234)/100*2*60</f>
-        <v>107961.59999999999</v>
+        <v>107961.6</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35">
         <f>E34+B34</f>
-        <v>162683.84000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>162683.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>42918</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>2700000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>